--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -785,8 +786,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -841,7 +842,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,7 +871,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,6 +885,10 @@
     </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -958,7 +963,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -997,7 +1002,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1033,45 +1038,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.0558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.2372093023256"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.2"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="70.2697674418605"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="67.1906976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="85.8976744186047"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="34.5813953488372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.2883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.2093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.9906976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="39.7488372093023"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="72.3627906976744"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="69.2837209302326"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="44.0558139534884"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.2"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.2"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7488372093023"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="32.1209302325581"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="88.4837209302326"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="35.6883720930233"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1192,6 +1197,7 @@
       <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
@@ -1239,20 +1245,21 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="11"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AM2" s="9"/>
+      <c r="AN2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1300,20 +1307,21 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="7"/>
+      <c r="AF3" s="11"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="11"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1361,22 +1369,23 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="11"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="12" t="n">
         <v>312</v>
       </c>
       <c r="AL4" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="12" t="n">
         <v>310</v>
       </c>
+      <c r="AN4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1424,20 +1433,21 @@
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
-      <c r="AF5" s="7"/>
+      <c r="AF5" s="11"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AL5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="11"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1469,11 +1479,11 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -1489,7 +1499,7 @@
       <c r="AE6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
@@ -1499,12 +1509,13 @@
       <c r="AK6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AL6" s="13" t="s">
+      <c r="AL6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AM6" s="14" t="n">
+      <c r="AM6" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1525,7 +1536,7 @@
       <c r="F7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1540,13 +1551,13 @@
       <c r="M7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="12" t="n">
         <v>50112128</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="9" t="s">
         <v>62</v>
       </c>
@@ -1570,7 +1581,7 @@
       <c r="AE7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF7" s="7" t="n">
+      <c r="AF7" s="11" t="n">
         <v>0.05</v>
       </c>
       <c r="AG7" s="9"/>
@@ -1586,6 +1597,7 @@
       <c r="AM7" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1603,10 +1615,10 @@
       <c r="E8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -1618,16 +1630,16 @@
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="11" t="n">
+      <c r="N8" s="12" t="n">
         <v>40822341</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="9" t="s">
         <v>62</v>
       </c>
@@ -1651,7 +1663,7 @@
       <c r="AE8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF8" s="7" t="n">
+      <c r="AF8" s="11" t="n">
         <v>0.05</v>
       </c>
       <c r="AG8" s="9"/>
@@ -1667,6 +1679,7 @@
       <c r="AM8" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -1687,7 +1700,7 @@
       <c r="F9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="16" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -1702,13 +1715,13 @@
       <c r="M9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="12" t="n">
         <v>90375408</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="9" t="s">
         <v>62</v>
       </c>
@@ -1732,7 +1745,7 @@
       <c r="AE9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF9" s="7" t="n">
+      <c r="AF9" s="11" t="n">
         <v>0.034</v>
       </c>
       <c r="AG9" s="9"/>
@@ -1748,6 +1761,7 @@
       <c r="AM9" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1765,10 +1779,10 @@
       <c r="E10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -1780,16 +1794,16 @@
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="11" t="n">
+      <c r="N10" s="12" t="n">
         <v>40822549</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1813,7 +1827,7 @@
       <c r="AE10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF10" s="7" t="n">
+      <c r="AF10" s="11" t="n">
         <v>0.034</v>
       </c>
       <c r="AG10" s="9"/>
@@ -1829,6 +1843,7 @@
       <c r="AM10" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1846,10 +1861,10 @@
       <c r="E11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -1861,16 +1876,16 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>42357278</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="9" t="s">
         <v>62</v>
       </c>
@@ -1894,7 +1909,7 @@
       <c r="AE11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF11" s="7" t="n">
+      <c r="AF11" s="11" t="n">
         <v>0.034</v>
       </c>
       <c r="AG11" s="9"/>
@@ -1910,6 +1925,7 @@
       <c r="AM11" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -1927,10 +1943,10 @@
       <c r="E12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>76</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -1942,16 +1958,16 @@
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>1111111</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="9" t="s">
         <v>62</v>
       </c>
@@ -1975,7 +1991,7 @@
       <c r="AE12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF12" s="7" t="n">
+      <c r="AF12" s="11" t="n">
         <v>0.034</v>
       </c>
       <c r="AG12" s="9"/>
@@ -1991,6 +2007,7 @@
       <c r="AM12" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2008,10 +2025,10 @@
       <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -2023,16 +2040,16 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="9" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +2073,7 @@
       <c r="AE13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF13" s="7" t="n">
+      <c r="AF13" s="11" t="n">
         <v>0.034</v>
       </c>
       <c r="AG13" s="9"/>
@@ -2072,6 +2089,7 @@
       <c r="AM13" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="AN13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2103,11 +2121,11 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -2125,7 +2143,7 @@
       <c r="AE14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="7"/>
+      <c r="AF14" s="11"/>
       <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
@@ -2138,9 +2156,10 @@
       <c r="AL14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="AM14" s="14" t="n">
+      <c r="AM14" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2158,10 +2177,10 @@
       <c r="E15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>86</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -2173,20 +2192,20 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="16" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="15" t="s">
         <v>63</v>
       </c>
       <c r="U15" s="9"/>
@@ -2206,10 +2225,10 @@
       <c r="AE15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="7" t="n">
+      <c r="AF15" s="11" t="n">
         <v>0.05</v>
       </c>
-      <c r="AG15" s="17"/>
+      <c r="AG15" s="18"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9" t="n">
@@ -2222,6 +2241,7 @@
       <c r="AM15" s="9" t="n">
         <v>9</v>
       </c>
+      <c r="AN15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2253,11 +2273,11 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -2275,7 +2295,7 @@
       <c r="AE16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF16" s="7"/>
+      <c r="AF16" s="11"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
@@ -2285,12 +2305,13 @@
       <c r="AK16" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="AL16" s="13" t="s">
+      <c r="AL16" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AM16" s="14" t="n">
+      <c r="AM16" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2311,7 +2332,7 @@
       <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -2326,13 +2347,13 @@
       <c r="M17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="12" t="n">
         <v>4650075420386</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="9" t="s">
         <v>62</v>
       </c>
@@ -2356,7 +2377,7 @@
       <c r="AE17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF17" s="7" t="n">
+      <c r="AF17" s="11" t="n">
         <v>0.05</v>
       </c>
       <c r="AG17" s="9"/>
@@ -2372,6 +2393,7 @@
       <c r="AM17" s="9" t="n">
         <v>11</v>
       </c>
+      <c r="AN17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2392,7 +2414,7 @@
       <c r="F18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -2407,13 +2429,13 @@
       <c r="M18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="11" t="n">
+      <c r="N18" s="12" t="n">
         <v>4650075420362</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="9" t="s">
         <v>62</v>
       </c>
@@ -2437,7 +2459,7 @@
       <c r="AE18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF18" s="7" t="n">
+      <c r="AF18" s="11" t="n">
         <v>0.036667</v>
       </c>
       <c r="AG18" s="9"/>
@@ -2453,6 +2475,7 @@
       <c r="AM18" s="9" t="n">
         <v>11</v>
       </c>
+      <c r="AN18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2470,10 +2493,10 @@
       <c r="E19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -2486,11 +2509,11 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="9" t="s">
         <v>62</v>
       </c>
@@ -2510,7 +2533,7 @@
       <c r="AE19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF19" s="7" t="n">
+      <c r="AF19" s="11" t="n">
         <v>0.02</v>
       </c>
       <c r="AG19" s="9"/>
@@ -2522,12 +2545,13 @@
       <c r="AK19" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="AL19" s="13" t="s">
+      <c r="AL19" s="14" t="s">
         <v>99</v>
       </c>
       <c r="AM19" s="9" t="n">
         <v>11</v>
       </c>
+      <c r="AN19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -2548,7 +2572,7 @@
       <c r="F20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>101</v>
       </c>
       <c r="H20" s="9" t="s">
@@ -2563,13 +2587,13 @@
       <c r="M20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="11" t="n">
+      <c r="N20" s="12" t="n">
         <v>4650075420508</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="9" t="s">
         <v>62</v>
       </c>
@@ -2593,7 +2617,7 @@
       <c r="AE20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF20" s="7"/>
+      <c r="AF20" s="11"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
@@ -2607,6 +2631,7 @@
       <c r="AM20" s="9" t="n">
         <v>14</v>
       </c>
+      <c r="AN20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -2627,7 +2652,7 @@
       <c r="F21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="9" t="s">
@@ -2642,13 +2667,13 @@
       <c r="M21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="11" t="n">
+      <c r="N21" s="12" t="n">
         <v>4650075420423</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="9" t="s">
         <v>62</v>
       </c>
@@ -2672,7 +2697,7 @@
       <c r="AE21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF21" s="7"/>
+      <c r="AF21" s="11"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
@@ -2686,6 +2711,7 @@
       <c r="AM21" s="9" t="n">
         <v>14</v>
       </c>
+      <c r="AN21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -2706,7 +2732,7 @@
       <c r="F22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>105</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -2721,13 +2747,13 @@
       <c r="M22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="11" t="n">
+      <c r="N22" s="12" t="n">
         <v>4650075420485</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="9" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2777,7 @@
       <c r="AE22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF22" s="7"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
@@ -2765,6 +2791,7 @@
       <c r="AM22" s="9" t="n">
         <v>14</v>
       </c>
+      <c r="AN22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -2785,7 +2812,7 @@
       <c r="F23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>107</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -2797,16 +2824,16 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N23" s="11" t="n">
+      <c r="N23" s="12" t="n">
         <v>4650075420447</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="9" t="s">
         <v>62</v>
       </c>
@@ -2830,7 +2857,7 @@
       <c r="AE23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2844,6 +2871,7 @@
       <c r="AM23" s="9" t="n">
         <v>14</v>
       </c>
+      <c r="AN23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -2864,7 +2892,7 @@
       <c r="F24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="16" t="s">
         <v>109</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -2879,13 +2907,13 @@
       <c r="M24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="11" t="n">
+      <c r="N24" s="12" t="n">
         <v>4650075420409</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="9" t="s">
         <v>62</v>
       </c>
@@ -2909,7 +2937,7 @@
       <c r="AE24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF24" s="7" t="n">
+      <c r="AF24" s="11" t="n">
         <v>0.036667</v>
       </c>
       <c r="AG24" s="9"/>
@@ -2925,6 +2953,7 @@
       <c r="AM24" s="9" t="n">
         <v>11</v>
       </c>
+      <c r="AN24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -2956,11 +2985,11 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -2978,7 +3007,7 @@
       <c r="AE25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" s="7"/>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
@@ -2991,9 +3020,10 @@
       <c r="AL25" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="AM25" s="14" t="n">
+      <c r="AM25" s="15" t="n">
         <v>300</v>
       </c>
+      <c r="AN25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3014,7 +3044,7 @@
       <c r="F26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="16" t="s">
         <v>113</v>
       </c>
       <c r="H26" s="9" t="s">
@@ -3027,22 +3057,22 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11" t="s">
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11" t="s">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12" t="s">
         <v>115</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="14" t="s">
+      <c r="T26" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="U26" s="14" t="s">
+      <c r="U26" s="15" t="s">
         <v>117</v>
       </c>
       <c r="V26" s="9"/>
@@ -3061,7 +3091,7 @@
       <c r="AE26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="7" t="n">
+      <c r="AF26" s="11" t="n">
         <v>0.036667</v>
       </c>
       <c r="AG26" s="9"/>
@@ -3077,6 +3107,7 @@
       <c r="AM26" s="9" t="n">
         <v>20</v>
       </c>
+      <c r="AN26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -3142,11 +3173,11 @@
       <c r="AE27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF27" s="7" t="n">
+      <c r="AF27" s="11" t="n">
         <v>0.166667</v>
       </c>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="19"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="20"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9" t="n">
         <v>2</v>
@@ -3155,9 +3186,10 @@
         <v>22</v>
       </c>
       <c r="AL27" s="9"/>
-      <c r="AM27" s="14" t="n">
+      <c r="AM27" s="15" t="n">
         <v>400</v>
       </c>
+      <c r="AN27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3217,10 +3249,10 @@
       <c r="AE28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF28" s="7" t="n">
+      <c r="AF28" s="11" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AG28" s="17"/>
+      <c r="AG28" s="18"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9" t="n">
@@ -3232,9 +3264,10 @@
       <c r="AL28" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AM28" s="14" t="n">
+      <c r="AM28" s="15" t="n">
         <v>400</v>
       </c>
+      <c r="AN28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -3304,8 +3337,8 @@
       <c r="AE29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="17"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="18"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9" t="n">
@@ -3318,6 +3351,7 @@
       <c r="AM29" s="9" t="n">
         <v>23</v>
       </c>
+      <c r="AN29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -3377,10 +3411,10 @@
       <c r="AE30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF30" s="7" t="n">
+      <c r="AF30" s="11" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AG30" s="17"/>
+      <c r="AG30" s="18"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9" t="n">
@@ -3389,12 +3423,13 @@
       <c r="AK30" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="AL30" s="13" t="s">
+      <c r="AL30" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AM30" s="14" t="n">
+      <c r="AM30" s="15" t="n">
         <v>400</v>
       </c>
+      <c r="AN30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -3460,8 +3495,8 @@
       <c r="AE31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="17"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="18"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9" t="n">
@@ -3474,6 +3509,7 @@
       <c r="AM31" s="9" t="n">
         <v>25</v>
       </c>
+      <c r="AN31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -3541,8 +3577,8 @@
       <c r="AE32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="17"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="18"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9" t="n">
@@ -3555,6 +3591,7 @@
       <c r="AM32" s="9" t="n">
         <v>25</v>
       </c>
+      <c r="AN32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -3569,7 +3606,7 @@
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -3610,19 +3647,19 @@
       <c r="AE33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF33" s="7" t="n">
+      <c r="AF33" s="11" t="n">
         <v>0.12</v>
       </c>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
-      <c r="AJ33" s="21" t="n">
+      <c r="AJ33" s="22" t="n">
         <v>2</v>
       </c>
       <c r="AK33" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AL33" s="22" t="s">
+      <c r="AL33" s="23" t="s">
         <v>150</v>
       </c>
       <c r="AM33" s="9" t="n">
@@ -3643,7 +3680,7 @@
       <c r="D34" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -3655,18 +3692,18 @@
       <c r="H34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="21" t="n">
+      <c r="I34" s="24"/>
+      <c r="J34" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
       <c r="Q34" s="9" t="s">
         <v>155</v>
       </c>
@@ -3679,33 +3716,33 @@
       <c r="T34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
       <c r="AA34" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
       <c r="AE34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="21" t="n">
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="AK34" s="21" t="n">
+      <c r="AK34" s="22" t="n">
         <v>900</v>
       </c>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21" t="n">
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3722,7 +3759,7 @@
       <c r="D35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -3734,51 +3771,51 @@
       <c r="H35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="21" t="n">
+      <c r="I35" s="24"/>
+      <c r="J35" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="9" t="s">
         <v>62</v>
       </c>
       <c r="T35" s="9"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
       <c r="AA35" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
       <c r="AE35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="21" t="n">
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="AK35" s="21" t="n">
+      <c r="AK35" s="22" t="n">
         <v>901</v>
       </c>
-      <c r="AL35" s="22" t="s">
+      <c r="AL35" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="AM35" s="21" t="n">
+      <c r="AM35" s="22" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3795,7 +3832,7 @@
       <c r="D36" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3807,22 +3844,22 @@
       <c r="H36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="21" t="n">
+      <c r="I36" s="24"/>
+      <c r="J36" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="23" t="s">
+      <c r="N36" s="24" t="s">
         <v>162</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23" t="s">
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24" t="s">
         <v>162</v>
       </c>
       <c r="S36" s="9" t="s">
@@ -3831,33 +3868,33 @@
       <c r="T36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
       <c r="AA36" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
       <c r="AE36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="21" t="n">
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="AK36" s="21" t="n">
+      <c r="AK36" s="22" t="n">
         <v>902</v>
       </c>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21" t="n">
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22" t="n">
         <v>901</v>
       </c>
     </row>
@@ -3874,7 +3911,7 @@
       <c r="D37" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3886,12 +3923,12 @@
       <c r="H37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="21" t="n">
+      <c r="I37" s="24"/>
+      <c r="J37" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="9" t="s">
         <v>165</v>
       </c>
@@ -3899,42 +3936,42 @@
         <v>5000034</v>
       </c>
       <c r="O37" s="9"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="9" t="s">
         <v>62</v>
       </c>
       <c r="T37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
       <c r="AA37" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
       <c r="AE37" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="21" t="n">
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="AK37" s="21" t="n">
+      <c r="AK37" s="22" t="n">
         <v>903</v>
       </c>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21" t="n">
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22" t="n">
         <v>901</v>
       </c>
     </row>
@@ -3951,10 +3988,10 @@
       <c r="D38" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="21" t="s">
         <v>167</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -3991,10 +4028,10 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
-      <c r="AE38" s="17" t="s">
+      <c r="AE38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AF38" s="7" t="n">
+      <c r="AF38" s="11" t="n">
         <v>0.046666</v>
       </c>
       <c r="AG38" s="9"/>
@@ -4006,10 +4043,10 @@
       <c r="AK38" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AL38" s="13" t="s">
+      <c r="AL38" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="AM38" s="14" t="n">
+      <c r="AM38" s="15" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4026,10 +4063,10 @@
       <c r="D39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="21" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -4070,10 +4107,10 @@
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
-      <c r="AE39" s="17" t="s">
+      <c r="AE39" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AF39" s="7"/>
+      <c r="AF39" s="11"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
       <c r="AI39" s="9"/>
@@ -4101,10 +4138,10 @@
       <c r="D40" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="21" t="s">
         <v>176</v>
       </c>
       <c r="G40" s="9" t="s">
@@ -4147,10 +4184,10 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
-      <c r="AE40" s="17" t="s">
+      <c r="AE40" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AF40" s="7"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="9" t="s">
@@ -4180,10 +4217,10 @@
       <c r="D41" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="21" t="s">
         <v>181</v>
       </c>
       <c r="G41" s="9" t="s">
@@ -4226,10 +4263,10 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
-      <c r="AE41" s="17" t="s">
+      <c r="AE41" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AF41" s="7"/>
+      <c r="AF41" s="11"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
       <c r="AI41" s="9" t="s">
@@ -4259,13 +4296,13 @@
       <c r="D42" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="21" t="s">
         <v>187</v>
       </c>
       <c r="H42" s="9" t="s">
@@ -4298,7 +4335,7 @@
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
-      <c r="AF42" s="7"/>
+      <c r="AF42" s="11"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="9"/>
       <c r="AI42" s="9"/>
@@ -4324,13 +4361,13 @@
       <c r="D43" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="21" t="s">
         <v>192</v>
       </c>
       <c r="H43" s="9" t="s">
@@ -4343,7 +4380,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="14" t="s">
         <v>195</v>
       </c>
       <c r="O43" s="9"/>
@@ -4365,7 +4402,7 @@
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
-      <c r="AF43" s="7"/>
+      <c r="AF43" s="11"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="9"/>
@@ -4410,7 +4447,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="14" t="s">
         <v>198</v>
       </c>
       <c r="O44" s="9"/>
@@ -4432,7 +4469,7 @@
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
-      <c r="AF44" s="7"/>
+      <c r="AF44" s="11"/>
       <c r="AG44" s="9"/>
       <c r="AH44" s="9"/>
       <c r="AI44" s="9"/>
@@ -4477,7 +4514,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="14" t="s">
         <v>199</v>
       </c>
       <c r="O45" s="9"/>
@@ -4499,7 +4536,7 @@
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
-      <c r="AF45" s="7"/>
+      <c r="AF45" s="11"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9"/>
@@ -4525,13 +4562,13 @@
       <c r="D46" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="21" t="s">
         <v>202</v>
       </c>
       <c r="H46" s="9" t="s">
@@ -4544,7 +4581,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="13" t="s">
+      <c r="N46" s="14" t="s">
         <v>203</v>
       </c>
       <c r="O46" s="9"/>
@@ -4566,7 +4603,7 @@
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
-      <c r="AF46" s="7"/>
+      <c r="AF46" s="11"/>
       <c r="AG46" s="9"/>
       <c r="AH46" s="9"/>
       <c r="AI46" s="9"/>
@@ -4592,13 +4629,13 @@
       <c r="D47" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="21" t="s">
         <v>202</v>
       </c>
       <c r="H47" s="9" t="s">
@@ -4611,7 +4648,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="14" t="s">
         <v>204</v>
       </c>
       <c r="O47" s="9"/>
@@ -4633,7 +4670,7 @@
       <c r="AC47" s="9"/>
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
-      <c r="AF47" s="7"/>
+      <c r="AF47" s="11"/>
       <c r="AG47" s="9"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="9"/>
@@ -4662,10 +4699,10 @@
       <c r="E48" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="21" t="s">
         <v>207</v>
       </c>
       <c r="H48" s="9" t="s">
@@ -4678,7 +4715,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="13" t="s">
+      <c r="N48" s="14" t="s">
         <v>208</v>
       </c>
       <c r="O48" s="9"/>
@@ -4700,7 +4737,7 @@
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
-      <c r="AF48" s="7"/>
+      <c r="AF48" s="11"/>
       <c r="AG48" s="9"/>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9"/>
@@ -4708,7 +4745,7 @@
       <c r="AK48" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AL48" s="13" t="s">
+      <c r="AL48" s="14" t="s">
         <v>209</v>
       </c>
       <c r="AM48" s="9"/>
@@ -4729,10 +4766,10 @@
       <c r="E49" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="21" t="s">
         <v>207</v>
       </c>
       <c r="H49" s="9" t="s">
@@ -4745,7 +4782,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="13" t="s">
+      <c r="N49" s="14" t="s">
         <v>210</v>
       </c>
       <c r="O49" s="9"/>
@@ -4767,7 +4804,7 @@
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
-      <c r="AF49" s="7"/>
+      <c r="AF49" s="11"/>
       <c r="AG49" s="9"/>
       <c r="AH49" s="9"/>
       <c r="AI49" s="9"/>
@@ -4775,7 +4812,7 @@
       <c r="AK49" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AL49" s="13" t="s">
+      <c r="AL49" s="14" t="s">
         <v>211</v>
       </c>
       <c r="AM49" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
@@ -24,6 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="211">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -401,12 +403,12 @@
     <t xml:space="preserve">Берн/Монстер 0.33л/0.5л любой</t>
   </si>
   <si>
+    <t xml:space="preserve">Burn, Monster</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCCC</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn, Monster</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
@@ -461,10 +463,7 @@
     <t xml:space="preserve">SSD, Water, Juices</t>
   </si>
   <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass</t>
+    <t xml:space="preserve">glass, GLASS</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Activation</t>
@@ -1030,53 +1029,53 @@
   </sheetPr>
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.2093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.9906976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="39.7488372093023"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="72.3627906976744"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="69.2837209302326"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="44.0558139534884"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="33.3488372093023"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.2"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="32.1209302325581"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="88.4837209302326"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="70.1441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.4232558139535"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="76.9116279069768"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.4697674418605"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.5348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="46.6418604651163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="94.0186046511628"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="45.0418604651163"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="13.7813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3057,14 +3056,16 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>62</v>
@@ -3316,11 +3317,11 @@
         <v>62</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3370,10 +3371,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>128</v>
@@ -3403,7 +3404,7 @@
         <v>123</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -3424,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="AL30" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM30" s="15" t="n">
         <v>400</v>
@@ -3448,10 +3449,10 @@
         <v>125</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>61</v>
@@ -3464,10 +3465,10 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -3476,7 +3477,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3487,7 +3488,7 @@
         <v>123</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -3528,10 +3529,10 @@
         <v>125</v>
       </c>
       <c r="F32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>61</v>
@@ -3544,13 +3545,13 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S32" s="9" t="s">
         <v>62</v>
@@ -3560,7 +3561,7 @@
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -3569,7 +3570,7 @@
         <v>123</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -3607,13 +3608,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>128</v>
@@ -3660,7 +3661,7 @@
         <v>29</v>
       </c>
       <c r="AL33" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM33" s="9" t="n">
         <v>400</v>
@@ -3678,16 +3679,16 @@
         <v>40</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>61</v>
@@ -3700,15 +3701,15 @@
       <c r="L34" s="24"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S34" s="9" t="s">
         <v>62</v>
@@ -3723,7 +3724,7 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB34" s="24"/>
       <c r="AC34" s="24"/>
@@ -3757,16 +3758,16 @@
         <v>40</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>98</v>
@@ -3794,7 +3795,7 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
       <c r="AA35" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB35" s="24"/>
       <c r="AC35" s="24"/>
@@ -3813,7 +3814,7 @@
         <v>901</v>
       </c>
       <c r="AL35" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM35" s="22" t="n">
         <v>29</v>
@@ -3830,16 +3831,16 @@
         <v>40</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>61</v>
@@ -3852,15 +3853,15 @@
       <c r="L36" s="24"/>
       <c r="M36" s="9"/>
       <c r="N36" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S36" s="9" t="s">
         <v>62</v>
@@ -3875,7 +3876,7 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
       <c r="AA36" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB36" s="24"/>
       <c r="AC36" s="24"/>
@@ -3909,16 +3910,16 @@
         <v>40</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>61</v>
@@ -3930,7 +3931,7 @@
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N37" s="9" t="n">
         <v>5000034</v>
@@ -3952,7 +3953,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
       <c r="AA37" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB37" s="24"/>
       <c r="AC37" s="24"/>
@@ -3986,16 +3987,16 @@
         <v>40</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>128</v>
@@ -4022,7 +4023,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -4044,7 +4045,7 @@
         <v>33</v>
       </c>
       <c r="AL38" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM38" s="15" t="n">
         <v>312</v>
@@ -4061,19 +4062,19 @@
         <v>40</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9" t="n">
@@ -4091,7 +4092,7 @@
         <v>62</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -4102,7 +4103,7 @@
         <v>64</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -4136,19 +4137,19 @@
         <v>40</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="n">
@@ -4160,7 +4161,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -4170,7 +4171,7 @@
         <v>62</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -4178,7 +4179,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -4191,7 +4192,7 @@
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AJ40" s="9" t="n">
         <v>3</v>
@@ -4215,19 +4216,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F41" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="n">
@@ -4239,7 +4240,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -4249,7 +4250,7 @@
         <v>62</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
@@ -4257,7 +4258,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -4270,7 +4271,7 @@
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
       <c r="AI41" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AJ41" s="9" t="n">
         <v>3</v>
@@ -4294,22 +4295,22 @@
         <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="G42" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="H42" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -4322,7 +4323,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -4359,29 +4360,29 @@
         <v>40</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>118</v>
       </c>
       <c r="F43" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="H43" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -4389,7 +4390,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
@@ -4426,29 +4427,29 @@
         <v>40</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="H44" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -4456,7 +4457,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
@@ -4493,29 +4494,29 @@
         <v>40</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="H45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -4523,7 +4524,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -4560,29 +4561,29 @@
         <v>40</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>202</v>
-      </c>
       <c r="H46" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -4590,7 +4591,7 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4627,29 +4628,29 @@
         <v>40</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="G47" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>202</v>
-      </c>
       <c r="H47" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -4657,7 +4658,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4694,29 +4695,29 @@
         <v>40</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="G48" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G48" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="H48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -4724,7 +4725,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
@@ -4746,7 +4747,7 @@
         <v>44</v>
       </c>
       <c r="AL48" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AM48" s="9"/>
     </row>
@@ -4761,29 +4762,29 @@
         <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E49" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="H49" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -4791,7 +4792,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4813,7 +4814,7 @@
         <v>45</v>
       </c>
       <c r="AL49" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM49" s="9"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
@@ -26,6 +26,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -463,6 +464,9 @@
     <t xml:space="preserve">SSD, Water, Juices</t>
   </si>
   <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">glass, GLASS</t>
   </si>
   <si>
@@ -487,9 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
   </si>
   <si>
     <t xml:space="preserve">Destination: Coca-Cola/Bon Aqua NRGB</t>
@@ -1029,53 +1030,53 @@
   </sheetPr>
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="70.1441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.4232558139535"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.0883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="76.9116279069768"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.4697674418605"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.5348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="46.6418604651163"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.5953488372093"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.0883720930233"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="94.0186046511628"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="38.5162790697674"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="45.0418604651163"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.4697674418605"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="72.2372093023256"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="78.6372093023256"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3162790697674"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="79.1302325581395"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="75.6837209302326"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="47.9953488372093"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.5813953488372"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="35.0744186046512"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="96.8511627906977"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="39.6279069767442"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="46.2697674418605"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="16"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="3" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3317,11 +3318,11 @@
         <v>62</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3371,10 +3372,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>128</v>
@@ -3404,7 +3405,7 @@
         <v>123</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -3425,7 +3426,7 @@
         <v>25</v>
       </c>
       <c r="AL30" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM30" s="15" t="n">
         <v>400</v>
@@ -3449,10 +3450,10 @@
         <v>125</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>61</v>
@@ -3465,10 +3466,10 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -3477,7 +3478,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3488,7 +3489,7 @@
         <v>123</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -3561,7 +3562,7 @@
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -3570,7 +3571,7 @@
         <v>123</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -3856,7 +3857,7 @@
         <v>161</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -768,8 +769,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -969,7 +970,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -990,7 +991,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1026,46 +1027,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.9395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.9395348837209"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.70232558139535"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.1441860465116"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.5116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.3488372093023"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="213">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -696,12 +697,21 @@
 23
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -709,6 +719,9 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="@"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -831,7 +844,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -936,6 +949,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1017,55 +1046,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="1:50"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="AC50" activeCellId="0" sqref="50:50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.3488372093023"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.9023255813954"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="58.5767441860465"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.7348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="239.111627906977"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="146.567441860465"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.0139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="26.0883720930233"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="71.9906976744186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="29.2883720930233"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="34.7023255813953"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4775,6 +4804,68 @@
       </c>
       <c r="AM49" s="7"/>
     </row>
+    <row r="50" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="n">
+        <v>904</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7" t="n">
+        <v>904</v>
+      </c>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AMJ50" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (160)\INTEGR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE6D70F-0FF3-4476-998C-DEC44A467B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,138 +30,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="213">
-  <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa_Bar_Tavern_Night_Clubs_REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="214">
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Sub category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Products to exclude</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>sub locations to include</t>
+  </si>
+  <si>
+    <t>sub locations to exclude</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000024</t>
+  </si>
+  <si>
+    <t>HoReCa_Bar_Tavern_Night_Clubs_REG</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -166,26 +171,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
   </si>
   <si>
     <t xml:space="preserve">23
@@ -194,16 +199,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -219,124 +224,124 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Aperol Spritz - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Шпритц - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Ginger Spritz - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Имбирь - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.25L Glass/Fanta Orange - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.25л стекло/ Фанта Апельсин - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.25L Glass, Fanta Orange - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54490970, 40822419, 87126860, 50112135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.33L Glass/ BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.33л стекло/БонАква Газ - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.33L Glass, BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90418822, 90382741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12
+    <t>Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Schweppes Aperol Spritz - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Шпритц - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Schweppes Ginger Spritz - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Имбирь - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Sprite - 0.25L Glass/Fanta Orange - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.25л стекло/ Фанта Апельсин - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Sprite - 0.25L Glass, Fanta Orange - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>54490970, 40822419, 87126860, 50112135</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.33L Glass/ BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.33л стекло/БонАква Газ - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.33L Glass, BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>90418822, 90382741</t>
+  </si>
+  <si>
+    <t>Juice Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>12
 13
 14
 19</t>
   </si>
   <si>
-    <t xml:space="preserve">Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich 0.2L Glass other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич 0.2л стекло остальные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+    <t>Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich 0.2L Glass other</t>
+  </si>
+  <si>
+    <t>Рич 0.2л стекло остальные</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">15
@@ -346,121 +351,121 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Rich - Pineapple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Ананас - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Peach - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Grapefruit - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Грейпфрут - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Tomato - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Томат - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Cherry - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn/Monster 0.33L/0.5L any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн/Монстер 0.33л/0.5л любой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn, Monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33, 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can 0.33, Coca Cola Zero Bottle, Coca Cola Zero Bottle NRGB, Coca Cola Glass, Coca Cola Cup, Coca Cola Bottle NRGB, Coca Cola Bottle, Cc Graphic, Cc Glass Graphic, Cc Glass And Bottle, CC Hands, Cc Bottle Graphic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5050570, 50111114, 50111112, 50111111, 5000006, 5000101, 5000005, 5000004, 68943577005, 68943577006, 68943577007, 68943577008, 68943577009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Menu Activation, Menu, Menu Insert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse: SSD/Water/Juice NRGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Импульс: SSD/Water/Juice Стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD, Water, Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass, GLASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Activation</t>
+    <t>Rich - Pineapple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Ананас - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Peach - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Grapefruit - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Грейпфрут - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Tomato - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Томат - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Cherry - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Вишня - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Burn/Monster 0.33L/0.5L any</t>
+  </si>
+  <si>
+    <t>Берн/Монстер 0.33л/0.5л любой</t>
+  </si>
+  <si>
+    <t>Burn, Monster</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>0.33, 0.5</t>
+  </si>
+  <si>
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>Menu Activation</t>
+  </si>
+  <si>
+    <t>Активация Меню</t>
+  </si>
+  <si>
+    <t>Coca Cola Can, Coca Cola Zero Can 0.33, Coca Cola Zero Bottle, Coca Cola Zero Bottle NRGB, Coca Cola Glass, Coca Cola Cup, Coca Cola Bottle NRGB, Coca Cola Bottle, Cc Graphic, Cc Glass Graphic, Cc Glass And Bottle, CC Hands, Cc Bottle Graphic</t>
+  </si>
+  <si>
+    <t>5050570, 50111114, 50111112, 50111111, 5000006, 5000101, 5000005, 5000004, 68943577005, 68943577006, 68943577007, 68943577008, 68943577009</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Other Menu Activation, Menu, Menu Insert</t>
+  </si>
+  <si>
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Bar Activation</t>
+  </si>
+  <si>
+    <t>Impulse: SSD/Water/Juice NRGB</t>
+  </si>
+  <si>
+    <t>Импульс: SSD/Water/Juice Стекло</t>
+  </si>
+  <si>
+    <t>Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t>SSD, Water, Juices</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>glass, GLASS</t>
+  </si>
+  <si>
+    <t>Destination Activation</t>
+  </si>
+  <si>
+    <t>Активация Стола</t>
+  </si>
+  <si>
+    <t>Table Activation</t>
   </si>
   <si>
     <t xml:space="preserve">26
@@ -468,93 +473,93 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Destination: Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола: Имиджи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination: Coca-Cola/Bon Aqua NRGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола: Coca-Cola/Bon Aqua NRGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola, Bonaqua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900
+    <t>Destination: Images</t>
+  </si>
+  <si>
+    <t>Активация Стола: Имиджи</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Destination: Coca-Cola/Bon Aqua NRGB</t>
+  </si>
+  <si>
+    <t>Активация Стола: Coca-Cola/Bon Aqua NRGB</t>
+  </si>
+  <si>
+    <t>Coca-Cola, Bonaqua</t>
+  </si>
+  <si>
+    <t>Local 21</t>
+  </si>
+  <si>
+    <t>Any Other Activation</t>
+  </si>
+  <si>
+    <t>Другие активации</t>
+  </si>
+  <si>
+    <t>900
 901</t>
   </si>
   <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation: NRGB/Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Any Other Activation: NRGB/Mix</t>
+  </si>
+  <si>
+    <t>Другие активации: Cтекло/Миксабилити</t>
   </si>
   <si>
     <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta </t>
   </si>
   <si>
-    <t xml:space="preserve">Mixability, Glass, Mocktails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation, Table Activation, Bar Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation: Coca-Cola/food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации: Кола+ЕДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902
+    <t>Mixability, Glass, Mocktails</t>
+  </si>
+  <si>
+    <t>Menu, Menu Insert, Other Menu Activation, Table Activation, Bar Activation</t>
+  </si>
+  <si>
+    <t>Any Other Activation: Coca-Cola/food</t>
+  </si>
+  <si>
+    <t>Другие активации: Кола+ЕДА</t>
+  </si>
+  <si>
+    <t>902
 903</t>
   </si>
   <si>
-    <t xml:space="preserve">Any Other Activation: Coca-Cola/food: Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации: Кола+ЕДА : Кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation: Coca-Cola/food: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации: Кола+ЕДА : Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимый ХО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
+    <t>Any Other Activation: Coca-Cola/food: Coca-Cola</t>
+  </si>
+  <si>
+    <t>Другие активации: Кола+ЕДА : Кола</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Any Other Activation: Coca-Cola/food: Food</t>
+  </si>
+  <si>
+    <t>Другие активации: Кола+ЕДА : Еда</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>LOCAL 11</t>
+  </si>
+  <si>
+    <t>Visible Cooler</t>
+  </si>
+  <si>
+    <t>Видимый ХО</t>
+  </si>
+  <si>
+    <t>Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">34
@@ -563,188 +568,170 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler is Visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО виден</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler fullness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО Заполнен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of filled Coolers (scenes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler wo other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО без посторонней продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of pure Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of TCCC product at least 98%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIS_COOLER_SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible cooler SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>Cooler is Visible</t>
+  </si>
+  <si>
+    <t>ХО виден</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>SCENES</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Cooler fullness</t>
+  </si>
+  <si>
+    <t>ХО Заполнен</t>
+  </si>
+  <si>
+    <t>number of filled Coolers (scenes)</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler wo other products</t>
+  </si>
+  <si>
+    <t>ХО без посторонней продукции</t>
+  </si>
+  <si>
+    <t>number of pure Coolers</t>
+  </si>
+  <si>
+    <t>Share of TCCC product at least 98%</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>VIS_COOLER_SAP</t>
+  </si>
+  <si>
+    <t>Visible cooler SAP</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
+  </si>
+  <si>
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">DEST
+    <t>DEST
 No_DEST</t>
   </si>
   <si>
-    <t xml:space="preserve">LOCAL 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVATION_OTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO_MidSoc
-No_DO_MidSoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_forLu
+    <t>ACTIVATION_OTHER</t>
+  </si>
+  <si>
+    <t>ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t>EO_forLu
 No_EO_forLu</t>
   </si>
   <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
-No_EO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>LOCAL 6</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>34
+35
+36</t>
+  </si>
+  <si>
+    <t>local 21</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>EO
+No_O_A</t>
+  </si>
+  <si>
+    <t>22
+23
 25
-29
-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO
-No_DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38
-23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+29</t>
+  </si>
+  <si>
+    <t>DO
+No_O_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="@"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -754,7 +741,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -772,8 +759,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,182 +792,153 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1032,72 +997,376 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="AC50" activeCellId="0" sqref="50:50"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42:AM49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.9023255813954"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="58.5767441860465"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.7348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.2"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="239.111627906977"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="146.567441860465"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.0139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="26.0883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="71.9906976744186"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="29.2883720930233"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="34.7023255813953"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="11.0744186046512"/>
+    <col min="1" max="1" width="11.875" style="1"/>
+    <col min="2" max="2" width="13.125" style="1"/>
+    <col min="3" max="3" width="37" style="1"/>
+    <col min="4" max="4" width="13" style="1"/>
+    <col min="5" max="5" width="14.5" style="1"/>
+    <col min="6" max="6" width="53.875" style="1"/>
+    <col min="7" max="7" width="58.625" style="1"/>
+    <col min="8" max="8" width="32.75" style="1"/>
+    <col min="9" max="9" width="19.25" style="1"/>
+    <col min="10" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="15.625" style="1"/>
+    <col min="12" max="12" width="16.125" style="1"/>
+    <col min="13" max="13" width="239.125" style="1"/>
+    <col min="14" max="14" width="146.625" style="1"/>
+    <col min="15" max="15" width="23" style="1"/>
+    <col min="16" max="16" width="18.75" style="1"/>
+    <col min="17" max="17" width="27.5" style="1"/>
+    <col min="18" max="18" width="36" style="1"/>
+    <col min="19" max="19" width="22" style="1"/>
+    <col min="20" max="20" width="15.75" style="1"/>
+    <col min="21" max="21" width="9.375" style="1"/>
+    <col min="22" max="22" width="17" style="1"/>
+    <col min="23" max="23" width="25.25" style="1"/>
+    <col min="24" max="24" width="20.375" style="1"/>
+    <col min="25" max="25" width="26.125" style="1"/>
+    <col min="26" max="26" width="25.625" style="1"/>
+    <col min="27" max="27" width="72" style="1"/>
+    <col min="28" max="28" width="23.375" style="1"/>
+    <col min="29" max="29" width="29.25" style="1"/>
+    <col min="30" max="30" width="29.75" style="1"/>
+    <col min="31" max="31" width="18.875" style="1"/>
+    <col min="32" max="32" width="17" style="1"/>
+    <col min="33" max="33" width="14.75" style="1"/>
+    <col min="34" max="34" width="15.25" style="1"/>
+    <col min="35" max="35" width="34.75" style="1"/>
+    <col min="36" max="36" width="9.25" style="1"/>
+    <col min="37" max="37" width="10.5" style="1"/>
+    <col min="38" max="38" width="12.625" style="1"/>
+    <col min="39" max="1025" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,8 +1485,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1266,10 +1535,10 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="10">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="10">
         <v>300</v>
       </c>
       <c r="AL2" s="11" t="s">
@@ -1277,8 +1546,8 @@
       </c>
       <c r="AM2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>46</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1327,10 +1596,10 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="10">
         <v>1</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="10">
         <v>310</v>
       </c>
       <c r="AL3" s="11" t="s">
@@ -1338,8 +1607,8 @@
       </c>
       <c r="AM3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1388,21 +1657,21 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
-      <c r="AJ4" s="10" t="n">
+      <c r="AJ4" s="10">
         <v>1</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="10">
         <v>312</v>
       </c>
-      <c r="AL4" s="7" t="n">
+      <c r="AL4" s="7">
         <v>33</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="10">
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1451,10 +1720,10 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="10">
         <v>1</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="10">
         <v>400</v>
       </c>
       <c r="AL5" s="11" t="s">
@@ -1462,8 +1731,8 @@
       </c>
       <c r="AM5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1516,21 +1785,21 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="7" t="n">
+      <c r="AJ6" s="7">
         <v>2</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="7">
         <v>1</v>
       </c>
       <c r="AL6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1555,7 +1824,7 @@
         <v>61</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7"/>
@@ -1563,7 +1832,7 @@
       <c r="M7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="10" t="n">
+      <c r="N7" s="10">
         <v>50112128</v>
       </c>
       <c r="O7" s="10"/>
@@ -1593,25 +1862,25 @@
       <c r="AE7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF7" s="9" t="n">
+      <c r="AF7" s="9">
         <v>0.05</v>
       </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
-      <c r="AJ7" s="7" t="n">
+      <c r="AJ7" s="7">
         <v>3</v>
       </c>
-      <c r="AK7" s="7" t="n">
+      <c r="AK7" s="7">
         <v>2</v>
       </c>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="7" t="n">
+      <c r="AM7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1636,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="7"/>
@@ -1644,7 +1913,7 @@
       <c r="M8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="10" t="n">
+      <c r="N8" s="10">
         <v>40822341</v>
       </c>
       <c r="O8" s="10"/>
@@ -1674,25 +1943,25 @@
       <c r="AE8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF8" s="9" t="n">
+      <c r="AF8" s="9">
         <v>0.05</v>
       </c>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="7">
         <v>3</v>
       </c>
-      <c r="AK8" s="7" t="n">
+      <c r="AK8" s="7">
         <v>3</v>
       </c>
       <c r="AL8" s="7"/>
-      <c r="AM8" s="7" t="n">
+      <c r="AM8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1717,7 +1986,7 @@
         <v>61</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7"/>
@@ -1725,7 +1994,7 @@
       <c r="M9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="10" t="n">
+      <c r="N9" s="10">
         <v>90375408</v>
       </c>
       <c r="O9" s="10"/>
@@ -1755,25 +2024,25 @@
       <c r="AE9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF9" s="9" t="n">
-        <v>0.034</v>
+      <c r="AF9" s="9">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="7">
         <v>3</v>
       </c>
-      <c r="AK9" s="7" t="n">
+      <c r="AK9" s="7">
         <v>4</v>
       </c>
       <c r="AL9" s="7"/>
-      <c r="AM9" s="7" t="n">
+      <c r="AM9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1798,7 +2067,7 @@
         <v>61</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
@@ -1806,7 +2075,7 @@
       <c r="M10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="10">
         <v>40822549</v>
       </c>
       <c r="O10" s="10"/>
@@ -1836,25 +2105,25 @@
       <c r="AE10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF10" s="9" t="n">
-        <v>0.034</v>
+      <c r="AF10" s="9">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="7">
         <v>3</v>
       </c>
-      <c r="AK10" s="7" t="n">
+      <c r="AK10" s="7">
         <v>5</v>
       </c>
       <c r="AL10" s="7"/>
-      <c r="AM10" s="7" t="n">
+      <c r="AM10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1879,7 +2148,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="7"/>
@@ -1887,7 +2156,7 @@
       <c r="M11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="10" t="n">
+      <c r="N11" s="10">
         <v>42357278</v>
       </c>
       <c r="O11" s="10"/>
@@ -1917,25 +2186,25 @@
       <c r="AE11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF11" s="9" t="n">
-        <v>0.034</v>
+      <c r="AF11" s="9">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="7">
         <v>3</v>
       </c>
-      <c r="AK11" s="7" t="n">
+      <c r="AK11" s="7">
         <v>6</v>
       </c>
       <c r="AL11" s="7"/>
-      <c r="AM11" s="7" t="n">
+      <c r="AM11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1960,7 +2229,7 @@
         <v>61</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
@@ -1968,7 +2237,7 @@
       <c r="M12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="16" t="n">
+      <c r="N12" s="16">
         <v>42357285</v>
       </c>
       <c r="O12" s="10"/>
@@ -1998,25 +2267,25 @@
       <c r="AE12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF12" s="9" t="n">
-        <v>0.034</v>
+      <c r="AF12" s="9">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="7">
         <v>3</v>
       </c>
-      <c r="AK12" s="7" t="n">
+      <c r="AK12" s="7">
         <v>7</v>
       </c>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="7" t="n">
+      <c r="AM12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2041,7 +2310,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
@@ -2079,25 +2348,25 @@
       <c r="AE13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF13" s="9" t="n">
-        <v>0.034</v>
+      <c r="AF13" s="9">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="7">
         <v>3</v>
       </c>
-      <c r="AK13" s="7" t="n">
+      <c r="AK13" s="7">
         <v>8</v>
       </c>
       <c r="AL13" s="7"/>
-      <c r="AM13" s="7" t="n">
+      <c r="AM13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2152,21 +2421,21 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="7">
         <v>2</v>
       </c>
-      <c r="AK14" s="7" t="n">
+      <c r="AK14" s="7">
         <v>9</v>
       </c>
-      <c r="AL14" s="7" t="n">
+      <c r="AL14" s="7">
         <v>10</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2191,7 +2460,7 @@
         <v>61</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="7">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
@@ -2229,25 +2498,25 @@
       <c r="AE15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="9" t="n">
+      <c r="AF15" s="9">
         <v>0.05</v>
       </c>
       <c r="AG15" s="18"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="7">
         <v>3</v>
       </c>
-      <c r="AK15" s="7" t="n">
+      <c r="AK15" s="7">
         <v>10</v>
       </c>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="7" t="n">
+      <c r="AM15" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2302,21 +2571,21 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="7">
         <v>2</v>
       </c>
-      <c r="AK16" s="7" t="n">
+      <c r="AK16" s="7">
         <v>11</v>
       </c>
       <c r="AL16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2341,7 +2610,7 @@
         <v>61</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
@@ -2349,7 +2618,7 @@
       <c r="M17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="10" t="n">
+      <c r="N17" s="10">
         <v>4650075420386</v>
       </c>
       <c r="O17" s="10"/>
@@ -2379,25 +2648,25 @@
       <c r="AE17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF17" s="9" t="n">
+      <c r="AF17" s="9">
         <v>0.05</v>
       </c>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="7">
         <v>3</v>
       </c>
-      <c r="AK17" s="7" t="n">
+      <c r="AK17" s="7">
         <v>12</v>
       </c>
       <c r="AL17" s="7"/>
-      <c r="AM17" s="7" t="n">
+      <c r="AM17" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2422,7 +2691,7 @@
         <v>61</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
@@ -2430,7 +2699,7 @@
       <c r="M18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="10" t="n">
+      <c r="N18" s="10">
         <v>4650075420362</v>
       </c>
       <c r="O18" s="10"/>
@@ -2460,25 +2729,25 @@
       <c r="AE18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF18" s="9" t="n">
-        <v>0.036667</v>
+      <c r="AF18" s="9">
+        <v>3.6666999999999998E-2</v>
       </c>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="7">
         <v>3</v>
       </c>
-      <c r="AK18" s="7" t="n">
+      <c r="AK18" s="7">
         <v>13</v>
       </c>
       <c r="AL18" s="7"/>
-      <c r="AM18" s="7" t="n">
+      <c r="AM18" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2503,7 +2772,7 @@
         <v>97</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
@@ -2533,27 +2802,27 @@
       <c r="AE19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF19" s="9" t="n">
+      <c r="AF19" s="9">
         <v>0.02</v>
       </c>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="7">
         <v>3</v>
       </c>
-      <c r="AK19" s="7" t="n">
+      <c r="AK19" s="7">
         <v>14</v>
       </c>
       <c r="AL19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AM19" s="7" t="n">
+      <c r="AM19" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2578,7 +2847,7 @@
         <v>61</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
@@ -2586,7 +2855,7 @@
       <c r="M20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="10" t="n">
+      <c r="N20" s="10">
         <v>4650075420508</v>
       </c>
       <c r="O20" s="10"/>
@@ -2620,19 +2889,19 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="7">
         <v>4</v>
       </c>
-      <c r="AK20" s="7" t="n">
+      <c r="AK20" s="7">
         <v>15</v>
       </c>
       <c r="AL20" s="7"/>
-      <c r="AM20" s="7" t="n">
+      <c r="AM20" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2657,7 +2926,7 @@
         <v>61</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
@@ -2665,7 +2934,7 @@
       <c r="M21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="10" t="n">
+      <c r="N21" s="10">
         <v>4650075420423</v>
       </c>
       <c r="O21" s="10"/>
@@ -2699,19 +2968,19 @@
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="7">
         <v>4</v>
       </c>
-      <c r="AK21" s="7" t="n">
+      <c r="AK21" s="7">
         <v>16</v>
       </c>
       <c r="AL21" s="7"/>
-      <c r="AM21" s="7" t="n">
+      <c r="AM21" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2736,7 +3005,7 @@
         <v>61</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="7">
         <v>1</v>
       </c>
       <c r="K22" s="7"/>
@@ -2744,7 +3013,7 @@
       <c r="M22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="10">
         <v>4650075420485</v>
       </c>
       <c r="O22" s="10"/>
@@ -2778,19 +3047,19 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="7">
         <v>4</v>
       </c>
-      <c r="AK22" s="7" t="n">
+      <c r="AK22" s="7">
         <v>17</v>
       </c>
       <c r="AL22" s="7"/>
-      <c r="AM22" s="7" t="n">
+      <c r="AM22" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2815,7 +3084,7 @@
         <v>61</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="7">
         <v>1</v>
       </c>
       <c r="K23" s="7"/>
@@ -2823,7 +3092,7 @@
       <c r="M23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N23" s="10" t="n">
+      <c r="N23" s="10">
         <v>4650075420447</v>
       </c>
       <c r="O23" s="10"/>
@@ -2857,19 +3126,19 @@
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="7">
         <v>4</v>
       </c>
-      <c r="AK23" s="7" t="n">
+      <c r="AK23" s="7">
         <v>18</v>
       </c>
       <c r="AL23" s="7"/>
-      <c r="AM23" s="7" t="n">
+      <c r="AM23" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2894,7 +3163,7 @@
         <v>61</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="7">
         <v>1</v>
       </c>
       <c r="K24" s="7"/>
@@ -2902,7 +3171,7 @@
       <c r="M24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="10">
         <v>4650075420409</v>
       </c>
       <c r="O24" s="10"/>
@@ -2932,25 +3201,25 @@
       <c r="AE24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF24" s="9" t="n">
-        <v>0.036667</v>
+      <c r="AF24" s="9">
+        <v>3.6666999999999998E-2</v>
       </c>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="7">
         <v>3</v>
       </c>
-      <c r="AK24" s="7" t="n">
+      <c r="AK24" s="7">
         <v>19</v>
       </c>
       <c r="AL24" s="7"/>
-      <c r="AM24" s="7" t="n">
+      <c r="AM24" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3005,21 +3274,21 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="7">
         <v>2</v>
       </c>
-      <c r="AK25" s="7" t="n">
+      <c r="AK25" s="7">
         <v>20</v>
       </c>
-      <c r="AL25" s="7" t="n">
+      <c r="AL25" s="7">
         <v>21</v>
       </c>
-      <c r="AM25" s="13" t="n">
+      <c r="AM25" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3044,7 +3313,7 @@
         <v>61</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="7">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
@@ -3086,25 +3355,25 @@
       <c r="AE26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="9" t="n">
-        <v>0.036667</v>
+      <c r="AF26" s="9">
+        <v>3.6666999999999998E-2</v>
       </c>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="7">
         <v>3</v>
       </c>
-      <c r="AK26" s="7" t="n">
+      <c r="AK26" s="7">
         <v>21</v>
       </c>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="7" t="n">
+      <c r="AM26" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3129,7 +3398,7 @@
         <v>61</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="7">
         <v>1</v>
       </c>
       <c r="K27" s="7"/>
@@ -3167,25 +3436,25 @@
       <c r="AE27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF27" s="9" t="n">
-        <v>0.166667</v>
+      <c r="AF27" s="9">
+        <v>0.16666700000000001</v>
       </c>
       <c r="AG27" s="18"/>
       <c r="AH27" s="20"/>
       <c r="AI27" s="7"/>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="7">
         <v>2</v>
       </c>
-      <c r="AK27" s="7" t="n">
+      <c r="AK27" s="7">
         <v>22</v>
       </c>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="13" t="n">
+      <c r="AM27" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3210,7 +3479,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="7">
         <v>1</v>
       </c>
       <c r="K28" s="7"/>
@@ -3242,27 +3511,27 @@
       <c r="AE28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF28" s="9" t="n">
-        <v>0.083333</v>
+      <c r="AF28" s="9">
+        <v>8.3333000000000004E-2</v>
       </c>
       <c r="AG28" s="18"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="7">
         <v>2</v>
       </c>
-      <c r="AK28" s="7" t="n">
+      <c r="AK28" s="7">
         <v>23</v>
       </c>
-      <c r="AL28" s="7" t="n">
+      <c r="AL28" s="7">
         <v>24</v>
       </c>
-      <c r="AM28" s="13" t="n">
+      <c r="AM28" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3287,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="7">
         <v>3</v>
       </c>
       <c r="K29" s="7"/>
@@ -3333,19 +3602,19 @@
       <c r="AG29" s="18"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="7">
         <v>3</v>
       </c>
-      <c r="AK29" s="7" t="n">
+      <c r="AK29" s="7">
         <v>24</v>
       </c>
       <c r="AL29" s="7"/>
-      <c r="AM29" s="7" t="n">
+      <c r="AM29" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3370,7 +3639,7 @@
         <v>127</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30" s="7"/>
@@ -3402,27 +3671,27 @@
       <c r="AE30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF30" s="9" t="n">
-        <v>0.083333</v>
+      <c r="AF30" s="9">
+        <v>8.3333000000000004E-2</v>
       </c>
       <c r="AG30" s="18"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="7">
         <v>2</v>
       </c>
-      <c r="AK30" s="7" t="n">
+      <c r="AK30" s="7">
         <v>25</v>
       </c>
       <c r="AL30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AM30" s="13" t="n">
+      <c r="AM30" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3447,7 +3716,7 @@
         <v>61</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
@@ -3489,19 +3758,19 @@
       <c r="AG31" s="18"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="7">
         <v>3</v>
       </c>
-      <c r="AK31" s="7" t="n">
+      <c r="AK31" s="7">
         <v>26</v>
       </c>
       <c r="AL31" s="7"/>
-      <c r="AM31" s="7" t="n">
+      <c r="AM31" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3526,7 +3795,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="7">
         <v>1</v>
       </c>
       <c r="K32" s="7"/>
@@ -3570,19 +3839,19 @@
       <c r="AG32" s="18"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="7">
         <v>3</v>
       </c>
-      <c r="AK32" s="7" t="n">
+      <c r="AK32" s="7">
         <v>27</v>
       </c>
       <c r="AL32" s="7"/>
-      <c r="AM32" s="7" t="n">
+      <c r="AM32" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -3607,7 +3876,7 @@
         <v>127</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="7">
         <v>1</v>
       </c>
       <c r="K33" s="7"/>
@@ -3635,27 +3904,27 @@
       <c r="AE33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AF33" s="9" t="n">
+      <c r="AF33" s="9">
         <v>0.12</v>
       </c>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
-      <c r="AJ33" s="22" t="n">
+      <c r="AJ33" s="22">
         <v>2</v>
       </c>
-      <c r="AK33" s="7" t="n">
+      <c r="AK33" s="7">
         <v>29</v>
       </c>
       <c r="AL33" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="AM33" s="7" t="n">
+      <c r="AM33" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3680,7 +3949,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="24"/>
-      <c r="J34" s="22" t="n">
+      <c r="J34" s="22">
         <v>1</v>
       </c>
       <c r="K34" s="24"/>
@@ -3722,19 +3991,19 @@
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
       <c r="AI34" s="24"/>
-      <c r="AJ34" s="22" t="n">
+      <c r="AJ34" s="22">
         <v>3</v>
       </c>
-      <c r="AK34" s="22" t="n">
+      <c r="AK34" s="22">
         <v>900</v>
       </c>
       <c r="AL34" s="22"/>
-      <c r="AM34" s="22" t="n">
+      <c r="AM34" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -3759,7 +4028,7 @@
         <v>97</v>
       </c>
       <c r="I35" s="24"/>
-      <c r="J35" s="22" t="n">
+      <c r="J35" s="22">
         <v>2</v>
       </c>
       <c r="K35" s="24"/>
@@ -3793,21 +4062,21 @@
       <c r="AG35" s="24"/>
       <c r="AH35" s="24"/>
       <c r="AI35" s="24"/>
-      <c r="AJ35" s="22" t="n">
+      <c r="AJ35" s="22">
         <v>3</v>
       </c>
-      <c r="AK35" s="22" t="n">
+      <c r="AK35" s="22">
         <v>901</v>
       </c>
       <c r="AL35" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="AM35" s="22" t="n">
+      <c r="AM35" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3832,7 +4101,7 @@
         <v>61</v>
       </c>
       <c r="I36" s="24"/>
-      <c r="J36" s="22" t="n">
+      <c r="J36" s="22">
         <v>1</v>
       </c>
       <c r="K36" s="24"/>
@@ -3874,19 +4143,19 @@
       <c r="AG36" s="24"/>
       <c r="AH36" s="24"/>
       <c r="AI36" s="24"/>
-      <c r="AJ36" s="22" t="n">
+      <c r="AJ36" s="22">
         <v>4</v>
       </c>
-      <c r="AK36" s="22" t="n">
+      <c r="AK36" s="22">
         <v>902</v>
       </c>
       <c r="AL36" s="22"/>
-      <c r="AM36" s="22" t="n">
+      <c r="AM36" s="22">
         <v>901</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3911,7 +4180,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="24"/>
-      <c r="J37" s="22" t="n">
+      <c r="J37" s="22">
         <v>1</v>
       </c>
       <c r="K37" s="24"/>
@@ -3919,7 +4188,7 @@
       <c r="M37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="N37" s="7" t="n">
+      <c r="N37" s="7">
         <v>5000034</v>
       </c>
       <c r="O37" s="7"/>
@@ -3951,19 +4220,19 @@
       <c r="AG37" s="24"/>
       <c r="AH37" s="24"/>
       <c r="AI37" s="24"/>
-      <c r="AJ37" s="22" t="n">
+      <c r="AJ37" s="22">
         <v>4</v>
       </c>
-      <c r="AK37" s="22" t="n">
+      <c r="AK37" s="22">
         <v>903</v>
       </c>
       <c r="AL37" s="22"/>
-      <c r="AM37" s="22" t="n">
+      <c r="AM37" s="22">
         <v>901</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -3988,7 +4257,7 @@
         <v>127</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="J38" s="7">
         <v>3</v>
       </c>
       <c r="K38" s="7"/>
@@ -4018,27 +4287,27 @@
       <c r="AE38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AF38" s="9" t="n">
-        <v>0.046666</v>
+      <c r="AF38" s="9">
+        <v>4.6665999999999999E-2</v>
       </c>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="7">
         <v>2</v>
       </c>
-      <c r="AK38" s="7" t="n">
+      <c r="AK38" s="7">
         <v>33</v>
       </c>
       <c r="AL38" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AM38" s="13" t="n">
+      <c r="AM38" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4063,7 +4332,7 @@
         <v>171</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="7" t="n">
+      <c r="J39" s="7">
         <v>1</v>
       </c>
       <c r="K39" s="7"/>
@@ -4101,19 +4370,19 @@
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
-      <c r="AJ39" s="7" t="n">
+      <c r="AJ39" s="7">
         <v>3</v>
       </c>
-      <c r="AK39" s="7" t="n">
+      <c r="AK39" s="7">
         <v>34</v>
       </c>
       <c r="AL39" s="7"/>
-      <c r="AM39" s="7" t="n">
+      <c r="AM39" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -4138,7 +4407,7 @@
         <v>176</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="7" t="n">
+      <c r="J40" s="7">
         <v>1</v>
       </c>
       <c r="K40" s="7"/>
@@ -4180,19 +4449,19 @@
       <c r="AI40" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AJ40" s="7" t="n">
+      <c r="AJ40" s="7">
         <v>3</v>
       </c>
-      <c r="AK40" s="7" t="n">
+      <c r="AK40" s="7">
         <v>35</v>
       </c>
       <c r="AL40" s="7"/>
-      <c r="AM40" s="7" t="n">
+      <c r="AM40" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -4217,7 +4486,7 @@
         <v>181</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="7">
         <v>1</v>
       </c>
       <c r="K41" s="7"/>
@@ -4259,19 +4528,19 @@
       <c r="AI41" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AJ41" s="7" t="n">
+      <c r="AJ41" s="7">
         <v>3</v>
       </c>
-      <c r="AK41" s="7" t="n">
+      <c r="AK41" s="7">
         <v>36</v>
       </c>
       <c r="AL41" s="7"/>
-      <c r="AM41" s="7" t="n">
+      <c r="AM41" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>37</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -4284,7 +4553,7 @@
         <v>183</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>184</v>
@@ -4293,10 +4562,10 @@
         <v>185</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -4309,7 +4578,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -4327,16 +4596,16 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="7" t="n">
+      <c r="AK42" s="7">
         <v>38</v>
       </c>
-      <c r="AL42" s="7" t="n">
-        <v>33</v>
+      <c r="AL42" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="AM42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -4352,23 +4621,23 @@
         <v>117</v>
       </c>
       <c r="F43" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="H43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4376,7 +4645,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4394,16 +4663,16 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
-      <c r="AK43" s="7" t="n">
+      <c r="AK43" s="7">
         <v>39</v>
       </c>
-      <c r="AL43" s="7" t="n">
+      <c r="AL43" s="7">
         <v>22</v>
       </c>
       <c r="AM43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>39</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4419,23 +4688,23 @@
         <v>124</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="H44" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -4443,7 +4712,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -4461,16 +4730,16 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
-      <c r="AK44" s="7" t="n">
+      <c r="AK44" s="7">
         <v>40</v>
       </c>
-      <c r="AL44" s="7" t="n">
+      <c r="AL44" s="7">
         <v>23</v>
       </c>
       <c r="AM44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>40</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4486,23 +4755,23 @@
         <v>124</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="H45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -4510,7 +4779,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4528,16 +4797,16 @@
       <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
-      <c r="AK45" s="7" t="n">
+      <c r="AK45" s="7">
         <v>41</v>
       </c>
-      <c r="AL45" s="7" t="n">
+      <c r="AL45" s="7">
         <v>25</v>
       </c>
       <c r="AM45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>41</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -4550,26 +4819,28 @@
         <v>183</v>
       </c>
       <c r="E46" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>200</v>
-      </c>
       <c r="H46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="30" t="s">
+        <v>210</v>
+      </c>
       <c r="N46" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -4577,7 +4848,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -4595,17 +4866,17 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
-      <c r="AK46" s="7" t="n">
+      <c r="AK46" s="7">
         <v>42</v>
       </c>
-      <c r="AL46" s="7" t="n">
-        <v>32</v>
+      <c r="AL46" s="7">
+        <v>29</v>
       </c>
       <c r="AM46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
-        <v>42</v>
+    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>39</v>
@@ -4616,27 +4887,27 @@
       <c r="D47" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>198</v>
+      <c r="E47" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="12" t="s">
-        <v>202</v>
+      <c r="N47" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -4644,7 +4915,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4662,17 +4933,17 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
-      <c r="AK47" s="7" t="n">
-        <v>43</v>
-      </c>
-      <c r="AL47" s="7" t="n">
-        <v>29</v>
+      <c r="AK47" s="7">
+        <v>44</v>
+      </c>
+      <c r="AL47" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="AM47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
-        <v>43</v>
+    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>39</v>
@@ -4684,26 +4955,28 @@
         <v>183</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="12" t="s">
-        <v>206</v>
+      <c r="M48" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -4711,7 +4984,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -4729,17 +5002,17 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
-      <c r="AK48" s="7" t="n">
-        <v>44</v>
+      <c r="AK48" s="7">
+        <v>45</v>
       </c>
       <c r="AL48" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
-        <v>44</v>
+    <row r="49" spans="1:1024" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>904</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>39</v>
@@ -4750,35 +5023,31 @@
       <c r="D49" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="21"/>
+      <c r="F49" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="H49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="12" t="s">
-        <v>208</v>
-      </c>
+      <c r="N49" s="27"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4789,92 +5058,23 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
+      <c r="AD49" s="28"/>
       <c r="AE49" s="7"/>
-      <c r="AF49" s="9"/>
+      <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
-      <c r="AK49" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL49" s="12" t="s">
-        <v>209</v>
-      </c>
+      <c r="AK49" s="7">
+        <v>904</v>
+      </c>
+      <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
-    </row>
-    <row r="50" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
-        <v>904</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7" t="n">
-        <v>904</v>
-      </c>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AMJ50" s="0"/>
+      <c r="AMJ49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM49"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AM48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>